--- a/docs/StructureDefinition-VACoverage.xlsx
+++ b/docs/StructureDefinition-VACoverage.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2114" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2117" uniqueCount="355">
   <si>
     <t>Path</t>
   </si>
@@ -319,256 +319,253 @@
     <t>Coverage.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Coverage.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Coverage.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>The primary coverage ID</t>
+  </si>
+  <si>
+    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatination of the Coverage.SubscriberID and the Coverage.dependant.</t>
+  </si>
+  <si>
+    <t>This value may uniquely identify the coverage or it may be used in conjunction with the additional identifiers below.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>IN1-2</t>
+  </si>
+  <si>
+    <t>C.32, C.33, C.39</t>
+  </si>
+  <si>
+    <t>Coverage.status</t>
+  </si>
+  <si>
+    <t>active | cancelled | draft | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the resource instance.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the resource instance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fm-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Coverage.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Type of coverage such as medical or accident</t>
+  </si>
+  <si>
+    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
+  </si>
+  <si>
+    <t>The order of application of coverages is dependent on the types of coverage.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>IN1-15</t>
+  </si>
+  <si>
+    <t>Coverage.policyHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
+</t>
+  </si>
+  <si>
+    <t>Owner of the policy</t>
+  </si>
+  <si>
+    <t>The party who 'owns' the insurance policy,  may be an individual, corporation or the subscriber's employer.</t>
+  </si>
+  <si>
+    <t>who.focus</t>
+  </si>
+  <si>
+    <t>D01 through D09</t>
+  </si>
+  <si>
+    <t>IN1-16, 18,  19-name of insured, address, date of birth</t>
+  </si>
+  <si>
+    <t>C.35</t>
+  </si>
+  <si>
+    <t>Coverage.subscriber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+</t>
+  </si>
+  <si>
+    <t>Subscriber to the policy</t>
+  </si>
+  <si>
+    <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.</t>
+  </si>
+  <si>
+    <t>Coverage.subscriberId</t>
+  </si>
+  <si>
+    <t>Subscriber ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Health Plans and Insurance</t>
+  </si>
+  <si>
+    <t>Enter the Subscriber's Primary ID number.  This number is assigned by the payer and can be found on the subscriber's insurance card.   This field is scheduled for deletion in May 2015.</t>
+  </si>
+  <si>
+    <t>INSURANCE TYPE @Subscriber ID  2.312-1</t>
+  </si>
+  <si>
+    <t>Coverage.beneficiary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient)
+</t>
+  </si>
+  <si>
+    <t>Plan Beneficiary</t>
+  </si>
+  <si>
+    <t>The party who benefits from the insurance coverage., the patient when services are provided.</t>
+  </si>
+  <si>
+    <t>Event.subject</t>
+  </si>
+  <si>
+    <t>Coverage.relationship</t>
+  </si>
+  <si>
+    <t>Beneficiary relationship to the Subscriber</t>
+  </si>
+  <si>
+    <t>The relationship of beneficiary (patient) to the subscriber.</t>
+  </si>
+  <si>
+    <t>To determine relationship between the patient and the subscriber.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The relationship between the Policyholder and the Beneficiary (insured/covered party/patient).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/policyholder-relationship</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>Coverage.relationship.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Coverage.relationship.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Coverage.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Coverage.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>The primary coverage ID</t>
-  </si>
-  <si>
-    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatination of the Coverage.SubscriberID and the Coverage.dependant.</t>
-  </si>
-  <si>
-    <t>This value may uniquely identify the coverage or it may be used in conjunction with the additional identifiers below.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>C02</t>
-  </si>
-  <si>
-    <t>IN1-2</t>
-  </si>
-  <si>
-    <t>C.32, C.33, C.39</t>
-  </si>
-  <si>
-    <t>Coverage.status</t>
-  </si>
-  <si>
-    <t>active | cancelled | draft | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the resource instance.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A code specifying the state of the resource instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Coverage.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Type of coverage such as medical or accident</t>
-  </si>
-  <si>
-    <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
-  </si>
-  <si>
-    <t>The order of application of coverages is dependent on the types of coverage.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>The type of insurance: public health, worker compensation; private accident, auto, private health, etc.) or a direct payment by an individual or organization.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/coverage-type</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>IN1-15</t>
-  </si>
-  <si>
-    <t>Coverage.policyHolder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson|Organization)
-</t>
-  </si>
-  <si>
-    <t>Owner of the policy</t>
-  </si>
-  <si>
-    <t>The party who 'owns' the insurance policy,  may be an individual, corporation or the subscriber's employer.</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>D01 through D09</t>
-  </si>
-  <si>
-    <t>IN1-16, 18,  19-name of insured, address, date of birth</t>
-  </si>
-  <si>
-    <t>C.35</t>
-  </si>
-  <si>
-    <t>Coverage.subscriber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
-</t>
-  </si>
-  <si>
-    <t>Subscriber to the policy</t>
-  </si>
-  <si>
-    <t>The party who has signed-up for or 'owns' the contractual relationship to the policy or to whom the benefit of the policy for services rendered to them or their family is due.</t>
-  </si>
-  <si>
-    <t>Coverage.subscriberId</t>
-  </si>
-  <si>
-    <t>Subscriber ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Health Plans and Insurance</t>
-  </si>
-  <si>
-    <t>Enter the Subscriber's Primary ID number.  This number is assigned by the payer and can be found on the subscriber's insurance card.   This field is scheduled for deletion in May 2015.</t>
-  </si>
-  <si>
-    <t>INSURANCE TYPE @Subscriber ID  2.312-1</t>
-  </si>
-  <si>
-    <t>Coverage.beneficiary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient)
-</t>
-  </si>
-  <si>
-    <t>Plan Beneficiary</t>
-  </si>
-  <si>
-    <t>The party who benefits from the insurance coverage., the patient when services are provided.</t>
-  </si>
-  <si>
-    <t>Event.subject</t>
-  </si>
-  <si>
-    <t>Coverage.relationship</t>
-  </si>
-  <si>
-    <t>Beneficiary relationship to the Subscriber</t>
-  </si>
-  <si>
-    <t>The relationship of beneficiary (patient) to the subscriber.</t>
-  </si>
-  <si>
-    <t>To determine relationship between the patient and the subscriber.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>The relationship between the Policyholder and the Beneficiary (insured/covered party/patient).</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/policyholder-relationship</t>
-  </si>
-  <si>
-    <t>C03</t>
-  </si>
-  <si>
-    <t>Coverage.relationship.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Coverage.relationship.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -958,10 +955,13 @@
     <t>Coverage.grouping.plan</t>
   </si>
   <si>
-    <t>An identifier for the plan</t>
-  </si>
-  <si>
-    <t>Identifies a style or collective of coverage issued by the underwriter, for example may be used to identify a collection of benefits provided to employees. May be referred to as a Section or Division ID.</t>
+    <t>HBP Code</t>
+  </si>
+  <si>
+    <t>This field contains the Health Benefit Plan that is assigned to a patient.</t>
+  </si>
+  <si>
+    <t>CURRENT HEALTH BENEFIT PLAN  @HBP Code  2.2511 -.01</t>
   </si>
   <si>
     <t>C01</t>
@@ -1303,7 +1303,7 @@
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="48.8046875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="55.08984375" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="30.84375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="46.52734375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="24.35546875" customWidth="true" bestFit="true"/>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2301,15 +2301,17 @@
         <v>43</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>43</v>
@@ -2346,14 +2348,16 @@
         <v>43</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>43</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>102</v>
@@ -2377,7 +2381,7 @@
         <v>43</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>43</v>
@@ -2398,7 +2402,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2417,16 +2421,16 @@
         <v>43</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>106</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2476,7 +2480,7 @@
         <v>43</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -2514,7 +2518,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2537,17 +2541,17 @@
         <v>53</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>43</v>
@@ -2596,7 +2600,7 @@
         <v>43</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -2614,27 +2618,27 @@
         <v>43</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>118</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2660,13 +2664,13 @@
         <v>71</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2692,55 +2696,55 @@
         <v>43</v>
       </c>
       <c r="W12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="X12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>43</v>
@@ -2754,7 +2758,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2777,17 +2781,17 @@
         <v>53</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>43</v>
@@ -2812,61 +2816,61 @@
         <v>43</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>43</v>
@@ -2874,7 +2878,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2897,13 +2901,13 @@
         <v>53</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="K14" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2954,7 +2958,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -2978,21 +2982,21 @@
         <v>43</v>
       </c>
       <c r="AM14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AP14" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3015,13 +3019,13 @@
         <v>53</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3072,7 +3076,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>44</v>
@@ -3096,28 +3100,28 @@
         <v>43</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s" s="2">
         <v>44</v>
@@ -3135,13 +3139,13 @@
         <v>53</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3192,7 +3196,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3207,7 +3211,7 @@
         <v>43</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>43</v>
@@ -3216,21 +3220,21 @@
         <v>43</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AP16" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AP16" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3253,13 +3257,13 @@
         <v>53</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3310,7 +3314,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3328,27 +3332,27 @@
         <v>43</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3371,17 +3375,17 @@
         <v>43</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>43</v>
@@ -3406,58 +3410,58 @@
         <v>43</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Y18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>43</v>
@@ -3468,7 +3472,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3491,13 +3495,13 @@
         <v>43</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3548,7 +3552,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -3569,7 +3573,7 @@
         <v>43</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>43</v>
@@ -3586,11 +3590,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3609,16 +3613,16 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3656,19 +3660,19 @@
         <v>43</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -3689,7 +3693,7 @@
         <v>43</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>43</v>
@@ -3706,7 +3710,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3729,19 +3733,19 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>43</v>
@@ -3790,7 +3794,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
@@ -3811,16 +3815,16 @@
         <v>43</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>43</v>
@@ -3828,7 +3832,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3851,13 +3855,13 @@
         <v>43</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3908,7 +3912,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>44</v>
@@ -3929,7 +3933,7 @@
         <v>43</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>43</v>
@@ -3946,11 +3950,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3969,16 +3973,16 @@
         <v>43</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4016,19 +4020,19 @@
         <v>43</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
@@ -4049,7 +4053,7 @@
         <v>43</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -4066,7 +4070,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4092,95 +4096,95 @@
         <v>65</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="R24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE24" t="s" s="2">
+      <c r="AF24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO24" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>43</v>
@@ -4188,7 +4192,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4211,16 +4215,16 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4270,37 +4274,37 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>43</v>
@@ -4308,14 +4312,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E26" t="s" s="2">
         <v>44</v>
@@ -4336,14 +4340,14 @@
         <v>71</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>43</v>
@@ -4392,37 +4396,37 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AK26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>43</v>
@@ -4430,7 +4434,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4453,17 +4457,17 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>43</v>
@@ -4512,37 +4516,37 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AF27" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>43</v>
@@ -4550,7 +4554,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4573,19 +4577,19 @@
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4634,37 +4638,37 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>43</v>
@@ -4672,7 +4676,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4695,19 +4699,19 @@
         <v>53</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -4756,37 +4760,37 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AF29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>43</v>
@@ -4794,7 +4798,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4817,13 +4821,13 @@
         <v>53</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4874,7 +4878,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -4892,19 +4896,19 @@
         <v>43</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>43</v>
@@ -4912,7 +4916,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4935,13 +4939,13 @@
         <v>43</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4992,7 +4996,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5013,7 +5017,7 @@
         <v>43</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -5030,11 +5034,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5053,16 +5057,16 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5100,19 +5104,19 @@
         <v>43</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5133,7 +5137,7 @@
         <v>43</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -5150,14 +5154,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E33" t="s" s="2">
         <v>44</v>
@@ -5175,16 +5179,16 @@
         <v>53</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="K33" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5234,37 +5238,37 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH33" t="s" s="2">
+      <c r="AI33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO33" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>43</v>
@@ -5272,14 +5276,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E34" t="s" s="2">
         <v>44</v>
@@ -5297,98 +5301,98 @@
         <v>53</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="P34" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Q34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
+      <c r="AK34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AK34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AO34" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>43</v>
@@ -5396,14 +5400,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E35" t="s" s="2">
         <v>44</v>
@@ -5421,17 +5425,17 @@
         <v>53</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>43</v>
@@ -5480,7 +5484,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -5495,30 +5499,30 @@
         <v>43</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AO35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>275</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5541,13 +5545,13 @@
         <v>43</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5598,7 +5602,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -5610,7 +5614,7 @@
         <v>43</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>43</v>
@@ -5636,7 +5640,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5659,13 +5663,13 @@
         <v>43</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5716,7 +5720,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -5737,7 +5741,7 @@
         <v>43</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>
@@ -5754,11 +5758,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5777,16 +5781,16 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>175</v>
+        <v>99</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5836,7 +5840,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -5857,7 +5861,7 @@
         <v>43</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>43</v>
@@ -5874,11 +5878,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5897,16 +5901,16 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5956,7 +5960,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -5994,14 +5998,14 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E40" t="s" s="2">
         <v>44</v>
@@ -6019,13 +6023,13 @@
         <v>53</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6076,7 +6080,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6091,30 +6095,30 @@
         <v>43</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AO40" t="s" s="2">
+      <c r="AP40" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AP40" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6137,13 +6141,13 @@
         <v>53</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6194,7 +6198,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6221,18 +6225,18 @@
         <v>43</v>
       </c>
       <c r="AN41" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AO41" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AO41" t="s" s="2">
+      <c r="AP41" t="s" s="2">
         <v>292</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>293</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6255,13 +6259,13 @@
         <v>53</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6312,7 +6316,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6342,7 +6346,7 @@
         <v>43</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>43</v>
@@ -6350,7 +6354,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6373,13 +6377,13 @@
         <v>53</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6430,7 +6434,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -6460,21 +6464,23 @@
         <v>43</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>43</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="E44" t="s" s="2">
         <v>44</v>
       </c>
@@ -6482,7 +6488,7 @@
         <v>52</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>43</v>
@@ -6491,13 +6497,13 @@
         <v>53</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6548,7 +6554,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
@@ -6563,7 +6569,7 @@
         <v>43</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>43</v>
+        <v>305</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>43</v>
@@ -6609,7 +6615,7 @@
         <v>53</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>309</v>
@@ -6727,7 +6733,7 @@
         <v>53</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>312</v>
@@ -6845,7 +6851,7 @@
         <v>53</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>316</v>
@@ -6963,7 +6969,7 @@
         <v>53</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>319</v>
@@ -7081,7 +7087,7 @@
         <v>53</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>322</v>
@@ -7199,7 +7205,7 @@
         <v>53</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>325</v>
@@ -7317,7 +7323,7 @@
         <v>53</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>328</v>
@@ -7435,7 +7441,7 @@
         <v>53</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>331</v>
@@ -7555,7 +7561,7 @@
         <v>53</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>337</v>
@@ -7793,7 +7799,7 @@
         <v>53</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>347</v>
@@ -7995,13 +8001,13 @@
         <v>43</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>354</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VACoverage.xlsx
+++ b/docs/StructureDefinition-VACoverage.xlsx
@@ -500,7 +500,7 @@
     <t>Coverage.beneficiary</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/VAPatient)
 </t>
   </si>
   <si>
@@ -3232,7 +3232,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>154</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>52</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>43</v>
